--- a/population.xlsx
+++ b/population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denizdereli\Desktop\Projects\MapPlot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denizdereli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3856,7 +3856,7 @@
   <dimension ref="A1:E973"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3899,7 +3899,7 @@
         <v>1002</v>
       </c>
       <c r="E2">
-        <v>22988</v>
+        <v>22989</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
